--- a/01_document/API定義書.xlsx
+++ b/01_document/API定義書.xlsx
@@ -7,14 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7776"/>
   </bookViews>
   <sheets>
-    <sheet name="ひながた" sheetId="4" r:id="rId1"/>
+    <sheet name="ログイン" sheetId="4" r:id="rId1"/>
+    <sheet name="お知らせ" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -120,30 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>品目一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ヒンモク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>労働アイテムマスタ取得API</t>
-    <rPh sb="0" eb="2">
-      <t>ロウドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>労働アイテムマスタを返却する。</t>
     <rPh sb="0" eb="2">
       <t>ロウドウ</t>
@@ -154,13 +131,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>労働アイテムID</t>
-    <rPh sb="0" eb="2">
-      <t>ロウドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
       <t>メイショウ</t>
@@ -175,9 +145,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>work_item_id</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -193,19 +160,105 @@
     <t>-</t>
   </si>
   <si>
+    <t>currency_id</t>
+  </si>
+  <si>
+    <t>if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/sanrokuaru/if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>loigin_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン結果</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <rPh sb="0" eb="2">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if20180001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインAPI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせ</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>（検索結果レコード分を繰り返す）</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GET: api/spajam/if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：workItemList</t>
+    <t>create_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：infomationList</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
@@ -215,7 +268,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>currency_id</t>
+    <t>お知らせ取得API</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせを返却する。</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：employee_info</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -730,10 +818,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>10</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -750,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -760,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
@@ -770,7 +1218,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -790,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -801,11 +1249,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>12</v>
@@ -813,7 +1260,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -847,14 +1294,14 @@
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="14" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -866,16 +1313,16 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="12"/>
@@ -886,15 +1333,13 @@
       <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
@@ -904,62 +1349,16 @@
       <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="1">
-        <v>10</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
+  <mergeCells count="8">
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G14:J14"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_document/API定義書.xlsx
+++ b/01_document/API定義書.xlsx
@@ -7,15 +7,15 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7776"/>
   </bookViews>
   <sheets>
-    <sheet name="ログイン" sheetId="4" r:id="rId1"/>
-    <sheet name="お知らせ" sheetId="5" r:id="rId2"/>
+    <sheet name="お知らせ" sheetId="5" r:id="rId1"/>
+    <sheet name="ログイン" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -24,20 +24,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>API英名</t>
-    <rPh sb="3" eb="5">
-      <t>エイメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>API説明</t>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスルート</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -70,13 +56,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数量</t>
-    <rPh sb="0" eb="2">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -121,36 +100,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>労働アイテムマスタを返却する。</t>
-    <rPh sb="0" eb="2">
-      <t>ロウドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨ID</t>
-    <rPh sb="0" eb="2">
-      <t>ツウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -160,17 +109,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>currency_id</t>
-  </si>
-  <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/sanrokuaru/if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,17 +118,6 @@
   </si>
   <si>
     <t>loigin_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -224,10 +151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインAPI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,26 +162,170 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付</t>
+    <t>（検索結果レコード分を繰り返す）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
     <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（検索結果レコード分を繰り返す）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：infomationList</t>
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>従業員SEQ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業SEQ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_seq</t>
+  </si>
+  <si>
+    <t>従業員コード</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員姓</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
+  </si>
+  <si>
+    <t>従業員名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_first_name</t>
+  </si>
+  <si>
+    <t>従業員部署1</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署2</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署3</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員ランク</t>
+  </si>
+  <si>
+    <t>従業員メールアドレス</t>
+  </si>
+  <si>
+    <t>ユーザー権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department1</t>
+  </si>
+  <si>
+    <t>employee_department2</t>
+  </si>
+  <si>
+    <t>employee_department3</t>
+  </si>
+  <si>
+    <t>employee_rank</t>
+  </si>
+  <si>
+    <t>employee_email_address</t>
+  </si>
+  <si>
+    <t>user_role</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd hh:mm:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇順・降順</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降順</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：login_result</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
@@ -268,41 +335,83 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お知らせ取得API</t>
+    <t>従業員情報</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：information</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お知らせapi</t>
     <rPh sb="1" eb="2">
       <t>シ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お知らせを返却する。</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>password</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：employee_info</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エイメイ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■検索</t>
+    <rPh sb="1" eb="3">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPメソッド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -344,12 +453,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor rgb="FFCCFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -445,8 +554,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -457,10 +606,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -468,7 +616,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -480,10 +652,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,6 +695,11 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -818,357 +998,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="C13" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="G13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="H15" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="1">
+        <v>50</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>50</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
+      <c r="C19" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>50</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1178,187 +1210,516 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="17.21875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="11" max="11" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="8"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="1">
+        <v>50</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>3</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>4</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="1">
+        <v>6</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="1">
+        <v>10</v>
+      </c>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>8</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="1">
+        <v>9</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="G25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="1">
+        <v>11</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B28" s="1">
+        <v>12</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="H29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1">
-        <v>50</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="F30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_document/API定義書.xlsx
+++ b/01_document/API定義書.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7776"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="7776" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="ログイン" sheetId="4" r:id="rId1"/>
-    <sheet name="お知らせ" sheetId="5" r:id="rId2"/>
+    <sheet name="お知らせ" sheetId="5" r:id="rId1"/>
+    <sheet name="ログイン" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="70">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -70,13 +70,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>数量</t>
-    <rPh sb="0" eb="2">
-      <t>スウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オブジェクト名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
@@ -121,36 +114,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>労働アイテムマスタを返却する。</t>
-    <rPh sb="0" eb="2">
-      <t>ロウドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンキャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>通貨ID</t>
-    <rPh sb="0" eb="2">
-      <t>ツウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>INT</t>
   </si>
   <si>
@@ -160,17 +123,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>currency_id</t>
-  </si>
-  <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET: api/sanrokuaru/if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログイン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -180,17 +132,6 @@
   </si>
   <si>
     <t>loigin_id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -224,10 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>if20180001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ログインAPI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,32 +176,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（検索結果レコード分を繰り返す）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>create_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>返却オブジェクト英名：infomationList</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンキャク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>エイメイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -296,13 +208,213 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>返却オブジェクト英名：employee_info</t>
+    <t>登録日時</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_time</t>
+  </si>
+  <si>
+    <t>ログイン結果を返す。</t>
+    <rPh sb="4" eb="6">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員SEQ</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業SEQ</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_seq</t>
+  </si>
+  <si>
+    <t>従業員コード</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員姓</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_last_name</t>
+  </si>
+  <si>
+    <t>従業員名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_first_name</t>
+  </si>
+  <si>
+    <t>従業員部署1</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署2</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員部署3</t>
+    <rPh sb="3" eb="5">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員ランク</t>
+  </si>
+  <si>
+    <t>従業員メールアドレス</t>
+  </si>
+  <si>
+    <t>ユーザー権限</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_department1</t>
+  </si>
+  <si>
+    <t>employee_department2</t>
+  </si>
+  <si>
+    <t>employee_department3</t>
+  </si>
+  <si>
+    <t>employee_rank</t>
+  </si>
+  <si>
+    <t>employee_email_address</t>
+  </si>
+  <si>
+    <t>user_role</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd hh:mm:ss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昇順・降順</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>項目名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降順</t>
+    <rPh sb="0" eb="2">
+      <t>コウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST: api/login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET: api/information</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：informations</t>
     <rPh sb="0" eb="2">
       <t>ヘンキャク</t>
     </rPh>
     <rPh sb="8" eb="10">
       <t>エイメイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>返却オブジェクト英名：login_result</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>エイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>従業員情報</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>employee_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -349,7 +461,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -453,11 +565,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -483,9 +644,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -818,370 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1">
-        <v>50</v>
-      </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1">
-        <v>50</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1">
-        <v>10</v>
-      </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>7</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1198,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -1207,9 +1032,7 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
+      <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
     </row>
@@ -1218,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -1238,29 +1061,29 @@
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -1268,13 +1091,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -1282,26 +1105,26 @@
       <c r="F14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="6"/>
       <c r="G15" s="14" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -1313,21 +1136,23 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="13"/>
+        <v>15</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
@@ -1335,19 +1160,43 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="13"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1364,4 +1213,519 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>50</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="17"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1">
+        <v>50</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1">
+        <v>10</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>7</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>8</v>
+      </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="13"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>9</v>
+      </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="13"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>10</v>
+      </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>11</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="13"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="13"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/01_document/API定義書.xlsx
+++ b/01_document/API定義書.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
   <si>
     <t>API和名</t>
     <rPh sb="3" eb="5">
@@ -100,24 +100,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
-    <t>VARCHAR</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログインID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>loigin_id</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -139,14 +125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BOOLEAN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -345,18 +323,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SMALLINT</t>
-  </si>
-  <si>
     <t>employee_code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>employee</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -370,10 +341,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/information</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>API名</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -388,10 +355,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>api/login</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■検索</t>
     <rPh sb="1" eb="3">
       <t>ケンサク</t>
@@ -411,7 +374,87 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>GET</t>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>階層</t>
+    <rPh sb="0" eb="2">
+      <t>カイソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/v1/if100101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>api/v1/if100102</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTTPステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエスト値</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業コード</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>company_code</t>
+  </si>
+  <si>
+    <t>company_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>employee_code</t>
+  </si>
+  <si>
+    <t>employee_seq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>smallint</t>
+  </si>
+  <si>
+    <t>company_nane</t>
+  </si>
+  <si>
+    <t>ROLE_USER：一般、ROLE_ADMIN：管理者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>企業名</t>
+    <rPh sb="0" eb="2">
+      <t>キギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -554,15 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -581,17 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -606,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -629,8 +652,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -650,15 +680,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1007,200 +1028,255 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>58</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F5" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="27" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="20">
+        <v>200</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="G18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="H18" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="I18" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="1">
-        <v>3</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="1">
-        <v>50</v>
-      </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>55</v>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="1">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H21" s="1">
+        <v>50</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1210,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1219,507 +1295,656 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.21875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="15.77734375" customWidth="1"/>
+    <col min="9" max="9" width="17.21875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="8"/>
+        <v>59</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F5" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="8"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="1">
+        <v>50</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1">
+        <v>50</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="20">
+        <v>200</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="F22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="G22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="H22" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="I22" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="1">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1">
-        <v>50</v>
-      </c>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="22"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="24"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="1">
-        <v>4</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="22"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="1">
-        <v>5</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="1">
-        <v>50</v>
-      </c>
-      <c r="I21" s="22"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="1">
-        <v>10</v>
-      </c>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1">
-        <v>7</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1">
-        <v>8</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="11"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1">
-        <v>9</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14"/>
       <c r="E26" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1">
-        <v>11</v>
-      </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="14"/>
       <c r="E27" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1">
-        <v>12</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="14"/>
       <c r="E28" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="11"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1">
-        <v>13</v>
-      </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="14"/>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+        <v>75</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1">
+        <v>6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="1">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>8</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="1"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="1">
+        <v>11</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="1">
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2</v>
+      </c>
+      <c r="D36" s="14"/>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="1"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B37" s="1">
+        <v>13</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="14"/>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="1">
         <v>14</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="1" t="s">
+      <c r="C38" s="1">
+        <v>2</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="G38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="H16:K16"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="H17:K17"/>
-    <mergeCell ref="H18:K18"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
